--- a/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidarctangent_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.193</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.716</v>
+        <v>17.519</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.203</v>
+        <v>-0.964</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.014</v>
+        <v>24.56</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.38</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.506</v>
+        <v>4.4</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6.010675456797951</v>
+        <v>15.22929921745136</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.63909344474956</v>
+        <v>13.5444766174878</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.93834654483287</v>
+        <v>15.65667979771335</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.073120908527875</v>
+        <v>0.1043306424460546</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.59112036534657</v>
+        <v>15.07235198792699</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.17959871378244</v>
+        <v>20.69698929471972</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.8001187367942</v>
+        <v>2.626846891483336</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.35968267762925</v>
+        <v>26.74416058689055</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.61320458041507</v>
+        <v>27.24732341337992</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.04718801378652</v>
+        <v>23.98080119604873</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>47.59445507644516</v>
+        <v>29.62373821367949</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>52.1963797000642</v>
+        <v>29.19604159587389</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.24085393868804</v>
+        <v>14.12832623770845</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>43.21103221808096</v>
+        <v>23.60504297525766</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>49.97600461305677</v>
+        <v>26.64377463091001</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.57895516691027</v>
+        <v>19.0104895343253</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.19198294823701</v>
+        <v>35.80848804794671</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.90131375593484</v>
+        <v>44.30952541337685</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.851027500307353</v>
+        <v>6.322915001992865</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.05470748726736</v>
+        <v>29.42784783960444</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.21352297113377</v>
+        <v>46.54890213200501</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>17.90305979943127</v>
+        <v>7.121221935354683</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>40.3990933352926</v>
+        <v>48.44500979286195</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>46.13901434612426</v>
+        <v>69.48444353480899</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>43.89219311613299</v>
+        <v>50.08913972392304</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50.47316823329595</v>
+        <v>61.78917665042866</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>55.31639469659953</v>
+        <v>72.31610913777472</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.09200698853225</v>
+        <v>18.00122504318133</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>47.62730651220711</v>
+        <v>67.88690851800831</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>54.49158701672287</v>
+        <v>76.60434673851259</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19.59420120442413</v>
+        <v>25.78681473549091</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>39.44074378720961</v>
+        <v>45.13013364436783</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.25479299802905</v>
+        <v>52.56178636849434</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16.35504768650173</v>
+        <v>9.846829898894345</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>39.3225506947127</v>
+        <v>40.18239588918023</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>44.52158386894665</v>
+        <v>54.69608920275856</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30.02985519371131</v>
+        <v>13.16516969258653</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.78253934547037</v>
+        <v>69.93419048080705</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>59.59787133370023</v>
+        <v>80.27715071536721</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>58.84813720489706</v>
+        <v>76.98522305969087</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>65.97621337415094</v>
+        <v>88.79495401211288</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>71.19893592354245</v>
+        <v>95.18100690312392</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.35324765934091</v>
+        <v>33.86630031371138</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>62.05322941721232</v>
+        <v>91.48343593738952</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>69.17963224778931</v>
+        <v>92.56920891099</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.474770154484258</v>
+        <v>8.473439895271028</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.4530626497407</v>
+        <v>39.58385789873675</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>32.4002672958207</v>
+        <v>41.56713834938946</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.632443746989567</v>
+        <v>1.510394553442868</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.51228321840986</v>
+        <v>43.29224234343233</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.54960588222686</v>
+        <v>47.18418642239175</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>18.11205678036692</v>
+        <v>2.425851446963723</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>40.99195939139423</v>
+        <v>63.34400864010915</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>45.83371748730717</v>
+        <v>63.75448611292803</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45.04825893723117</v>
+        <v>57.85316022496772</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>51.69828603571617</v>
+        <v>66.04001036882261</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.90798253968003</v>
+        <v>62.73526108100681</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.7436150425855</v>
+        <v>10.11627104411675</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>46.45042419554444</v>
+        <v>58.73564917216767</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>52.73307141672538</v>
+        <v>66.04417024030396</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.35187211224908</v>
+        <v>11.30603692085072</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>31.20712071093687</v>
+        <v>38.65056902856433</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>35.53280631535839</v>
+        <v>44.46690912151237</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.628999691715212</v>
+        <v>1.890501086637471</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>31.07702420517577</v>
+        <v>32.21767190147194</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.64218252721196</v>
+        <v>45.56865617849109</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20.36030868223669</v>
+        <v>4.911046050784943</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43.06187924154746</v>
+        <v>56.26369892651384</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>48.35229256384122</v>
+        <v>72.76476438716978</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>46.07172693431491</v>
+        <v>52.60615943218382</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>52.71703044927</v>
+        <v>66.12944912730549</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>57.20147974797926</v>
+        <v>70.28711572744555</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.0664664850263</v>
+        <v>8.041982581501273</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>49.16857841288706</v>
+        <v>68.3106372774664</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>55.53434415117663</v>
+        <v>75.28657544258466</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>20.62621881973988</v>
+        <v>9.549625606536534</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.70667580746742</v>
+        <v>43.94349469463212</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>45.08835013942037</v>
+        <v>47.9702197865489</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>18.42581543228082</v>
+        <v>-1.033365833399959</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.61430702073451</v>
+        <v>42.91394168274054</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>46.18778890301303</v>
+        <v>51.37305860824914</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>31.58163674257432</v>
+        <v>2.568861474447086</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>55.51871168849068</v>
+        <v>71.71222556908491</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>60.83888908713983</v>
+        <v>78.87771663274017</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>60.11112968124104</v>
+        <v>76.81966375685192</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>67.25381468200344</v>
+        <v>92.39159137634799</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>72.06549109244516</v>
+        <v>93.17353729953892</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>31.51546350655265</v>
+        <v>6.884714325521411</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>62.72686662826072</v>
+        <v>85.25080106998975</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>69.30995819443011</v>
+        <v>88.67786665411262</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>9.539587413685362</v>
+        <v>27.69871343444343</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.41929207743887</v>
+        <v>44.27967265841622</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.25908111016696</v>
+        <v>46.84013598858903</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7.377627861514495</v>
+        <v>7.8264333007318</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.18695111231636</v>
+        <v>45.90231577264554</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.11431199681402</v>
+        <v>49.05585416973278</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.95467973374564</v>
+        <v>8.821858837131206</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>40.75753225212068</v>
+        <v>67.84103716498332</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>45.48116733377644</v>
+        <v>62.29893157301244</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>44.966949634426</v>
+        <v>57.18488284108088</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>51.47770344361967</v>
+        <v>70.14439374513674</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>55.60074257280647</v>
+        <v>67.80762963195988</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.87791133625486</v>
+        <v>26.7543285265409</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>46.24398943598065</v>
+        <v>60.03432908778109</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>52.32554661902444</v>
+        <v>63.87742995903008</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>12.92902897406266</v>
+        <v>25.03687669617425</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>31.69188097881255</v>
+        <v>45.4405662325697</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.9011187631143</v>
+        <v>47.9316552402794</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.867047249915524</v>
+        <v>6.695515334210015</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.2508809117321</v>
+        <v>41.6839765396376</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>35.6988972213278</v>
+        <v>48.06098322087398</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20.73506122870031</v>
+        <v>7.603382771138708</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.36874330457515</v>
+        <v>66.73654142918306</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>48.5288781802123</v>
+        <v>73.29695239023756</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>46.48207759728511</v>
+        <v>60.65986517477619</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>52.97876950875433</v>
+        <v>71.26390164041531</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>57.36004350594278</v>
+        <v>70.85683328029614</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.6745211826037</v>
+        <v>27.41124478344245</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>49.41843709105565</v>
+        <v>71.84492785671233</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.58379491825848</v>
+        <v>73.33081818515768</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.44384296778657</v>
+        <v>31.22174703586691</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.4362689306613</v>
+        <v>52.01581851215541</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>45.71912778288453</v>
+        <v>53.7685928778712</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.9501758236375</v>
+        <v>6.832017677403829</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>42.08688056215088</v>
+        <v>51.39960218034344</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.54893748343711</v>
+        <v>54.09998313243858</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>32.26167749451236</v>
+        <v>7.443303960750161</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>56.13666542606097</v>
+        <v>78.85416359226926</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.34754702868217</v>
+        <v>78.70709658215925</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>60.80649855170536</v>
+        <v>83.70170277161036</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>67.8265218754604</v>
+        <v>90.87135151099821</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>72.53933602948447</v>
+        <v>94.72273282296268</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>32.37702730098231</v>
+        <v>32.79807894440934</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>63.2774618486782</v>
+        <v>89.61266636341117</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>69.68868380656016</v>
+        <v>91.10421949897989</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>7.302917105729816</v>
+        <v>15.69343977624251</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.46397965570305</v>
+        <v>18.1833279337543</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.57786241941771</v>
+        <v>18.28187999211031</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>4.263745436502064</v>
+        <v>2.202264938660004</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.21393357289449</v>
+        <v>21.57589187668851</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.61724384586829</v>
+        <v>22.66424124515007</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>14.91302593223682</v>
+        <v>4.52783308077673</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.92340287292203</v>
+        <v>30.78162797520376</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>41.96623836683074</v>
+        <v>29.03832109666768</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.35944096950526</v>
+        <v>27.02446600123812</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>47.75541817738338</v>
+        <v>30.1782076711775</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>52.29040032739813</v>
+        <v>33.79195448796325</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>16.39281259505785</v>
+        <v>64.97679072835126</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>43.62735988509841</v>
+        <v>68.95751592030643</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>50.12225252878868</v>
+        <v>66.17826147298011</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>11.73397690371218</v>
+        <v>13.37321554459347</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.87501926117221</v>
+        <v>35.65108194609172</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.39712949266091</v>
+        <v>42.81000300365775</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>7.932561912025633</v>
+        <v>4.598211301587064</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.57530089957157</v>
+        <v>32.93534303252959</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.54662844353993</v>
+        <v>48.26006040131994</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>18.89927385023477</v>
+        <v>10.83443895875807</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>40.84185646720535</v>
+        <v>51.29912749960901</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.36596151312078</v>
+        <v>71.24649221951391</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>44.10292890784628</v>
+        <v>44.46951114517415</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>50.53095864662083</v>
+        <v>54.06006884217954</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>55.31310059968148</v>
+        <v>69.78622801685069</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>20.11037379704279</v>
+        <v>18.52641359416603</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.89195270292089</v>
+        <v>65.78563733610609</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>54.48511112285205</v>
+        <v>73.27554844206205</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>20.49669805981591</v>
+        <v>26.80412262605445</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.85062322910639</v>
+        <v>45.5214513520334</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>44.46698176181324</v>
+        <v>53.58557089339192</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>17.09637327202384</v>
+        <v>8.762049088705549</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.45601980542797</v>
+        <v>41.01306854340466</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>44.46359605345555</v>
+        <v>50.38021052663696</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>30.63210354987873</v>
+        <v>15.0189738253107</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>53.81445896793048</v>
+        <v>65.57604208050203</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>59.40348245396484</v>
+        <v>78.24390957254894</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.61430622812772</v>
+        <v>65.72296306489807</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.55824395497234</v>
+        <v>75.44663923519938</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>70.71017062270001</v>
+        <v>92.4869726451282</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>31.95840248959566</v>
+        <v>36.39502240896836</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>61.84241137010531</v>
+        <v>84.17687696682809</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>68.70195023777609</v>
+        <v>90.41593239886718</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.7624156330443</v>
+        <v>24.28425032471134</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>30.74084575569665</v>
+        <v>43.63460176152333</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.72818548765332</v>
+        <v>41.52905516855726</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.96256240392562</v>
+        <v>7.668026779046659</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>30.90473388263933</v>
+        <v>46.89631993683565</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>35.15370112603479</v>
+        <v>50.9377072491133</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>20.2321253253524</v>
+        <v>10.48273285853211</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>43.16790108078249</v>
+        <v>73.90426260212507</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>48.07095154306442</v>
+        <v>66.49095346291691</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>47.18841082122623</v>
+        <v>59.79282427066588</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.80131583940391</v>
+        <v>72.98298426802847</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>58.24581705683504</v>
+        <v>74.7009784996478</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.78688193085094</v>
+        <v>22.04863204859305</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>49.04288156034841</v>
+        <v>12.71834725131417</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>55.40437658004706</v>
+        <v>15.50482812942289</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.30350451226595</v>
+        <v>31.30202655972729</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35.25474559650934</v>
+        <v>56.1427131639473</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>39.62394792331661</v>
+        <v>53.59537460943706</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>12.69984433461688</v>
+        <v>8.189837686564285</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.33089232748048</v>
+        <v>46.1930724017275</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>39.11302119401608</v>
+        <v>54.27339468572234</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.3113690333139</v>
+        <v>11.09832913792957</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>47.16852054138037</v>
+        <v>74.46232076685797</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>52.52657707365735</v>
+        <v>77.83812233848606</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>50.00217920265987</v>
+        <v>73.19615058413174</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>56.62923263169199</v>
+        <v>78.8241064607252</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>61.30859854984574</v>
+        <v>81.05746025615601</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.69497878865814</v>
+        <v>42.66536167581364</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>53.48524702009775</v>
+        <v>79.82861119785795</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>59.91957252089159</v>
+        <v>79.75349045778492</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.34457102971168</v>
+        <v>36.13252904701281</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.46161665209466</v>
+        <v>56.27760449821848</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.94665235478639</v>
+        <v>56.21023745448419</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>21.17262362899425</v>
+        <v>8.655199096181224</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>44.4614948363874</v>
+        <v>48.27721622465533</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>49.30564926859799</v>
+        <v>52.22659692035485</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>35.29798040498626</v>
+        <v>11.84462960756942</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>59.34164462692091</v>
+        <v>79.56084066901064</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>64.78816933951643</v>
+        <v>81.05136080414673</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>63.8262210750481</v>
+        <v>86.68651904147325</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>70.96689915661401</v>
+        <v>90.76329024477586</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>76.0211214739704</v>
+        <v>94.38772115207016</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>35.88456225097575</v>
+        <v>53.17971468686315</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>66.77257918505573</v>
+        <v>92.31589470162305</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>73.4863244362209</v>
+        <v>88.217599339489</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>30.80526920620782</v>
+        <v>18.18993953101526</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>48.23868242886824</v>
+        <v>34.27956340889754</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>51.40879668432216</v>
+        <v>38.88556848135576</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.4252056403841</v>
+        <v>6.172030421758723</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>49.58659205107409</v>
+        <v>45.189519536546</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>52.87935522377943</v>
+        <v>47.95318649774163</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>40.79831087302274</v>
+        <v>6.964200714292446</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>61.74767865082006</v>
+        <v>71.9232662497795</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>65.67185161121053</v>
+        <v>67.37018183855227</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>62.91893889245848</v>
+        <v>62.7754235223282</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>68.94884859777336</v>
+        <v>70.82376740869206</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>72.67981815214698</v>
+        <v>72.64986372229637</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.58777696950852</v>
+        <v>14.47493432291033</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>63.70123918289806</v>
+        <v>7.258127796490353</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>68.81326302401079</v>
+        <v>8.458848041120699</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>34.43675689725725</v>
+        <v>23.18009761121473</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>51.82471255762151</v>
+        <v>50.3433478957955</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>55.32338356132168</v>
+        <v>52.05175530413735</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.29572921811383</v>
+        <v>5.604068222980768</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>52.16093179381393</v>
+        <v>45.79649564281572</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>55.9077026965757</v>
+        <v>52.50222871594148</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>43.96752544816957</v>
+        <v>6.532628031718463</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>64.82320861820111</v>
+        <v>73.69885486059785</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>69.14007245910217</v>
+        <v>76.92619840248625</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>64.94292759887004</v>
+        <v>58.58636222256558</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.95910985695241</v>
+        <v>72.62894919647874</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>74.93336596321076</v>
+        <v>76.23513830877212</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>40.75277959166657</v>
+        <v>24.85789378201084</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>67.32963260101131</v>
+        <v>79.88723936155314</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>72.510241289937</v>
+        <v>84.0951356310924</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>39.9987793749919</v>
+        <v>23.66488533099647</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>58.33717934736072</v>
+        <v>50.56223983631614</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>61.89546417253092</v>
+        <v>53.06237980794471</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>38.172243512984</v>
+        <v>3.081450387259164</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>59.38754872619808</v>
+        <v>48.57195268629519</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>63.16123693024602</v>
+        <v>50.89707919476616</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>51.8459881548641</v>
+        <v>4.690541632323207</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>73.65654517261541</v>
+        <v>79.06655549862391</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>78.00878146725746</v>
+        <v>78.62651387288156</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>75.40244812261334</v>
+        <v>78.66856236789761</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>81.83503531220823</v>
+        <v>90.96395892708875</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>86.06072105418238</v>
+        <v>92.55627991296824</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>48.99985766546475</v>
+        <v>24.87964777799072</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>77.33531100022789</v>
+        <v>86.93803424008775</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>82.71015214545399</v>
+        <v>86.59417019544044</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>16.06763786348049</v>
+        <v>9.858624528746251</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>32.33504007388287</v>
+        <v>7.165856692980942</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>36.31891980904834</v>
+        <v>10.5617278909264</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.08835872210613</v>
+        <v>-1.118803272528279</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.94252442410507</v>
+        <v>12.06456309350231</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.14284381377169</v>
+        <v>15.44177609720685</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.01028794653508</v>
+        <v>-0.7160357834273583</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>43.68887420148999</v>
+        <v>20.75049756498355</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>48.51311310737476</v>
+        <v>20.67922350746936</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>46.6829280665365</v>
+        <v>22.44475865142259</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>52.48825807971652</v>
+        <v>30.14561440203117</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>56.37542481662871</v>
+        <v>32.51982414264008</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>23.36781379813559</v>
+        <v>11.11014859935782</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>48.14498601281768</v>
+        <v>17.81213863012129</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>54.11602953526959</v>
+        <v>18.50466872570628</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>19.91058852029826</v>
+        <v>12.650150962601</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.15473846211432</v>
+        <v>27.60103264124357</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.50727383356032</v>
+        <v>34.00009556733216</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>17.20922049748167</v>
+        <v>4.602580094574986</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>35.76744297621171</v>
+        <v>27.02979063307074</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>40.48408046874648</v>
+        <v>38.92024290451239</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.41505117895311</v>
+        <v>5.449620167158304</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>47.02809235605162</v>
+        <v>42.43850764526147</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>52.28756618074104</v>
+        <v>56.19891418284374</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.97278956224525</v>
+        <v>39.13180147886189</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>54.78996073058008</v>
+        <v>50.41646442986311</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>58.90199810071692</v>
+        <v>55.01450067069973</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.5702172615105</v>
+        <v>13.28236075673093</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>51.82358452182334</v>
+        <v>52.77069081136719</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>57.89406923689</v>
+        <v>55.37874433204086</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.50851405031148</v>
+        <v>16.63517805377068</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>45.85838610474295</v>
+        <v>37.20821989180777</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>50.29632323432456</v>
+        <v>43.44561650819229</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.40473346852942</v>
+        <v>7.601704732212706</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>46.54557837907498</v>
+        <v>40.73443561460141</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>51.28052601258085</v>
+        <v>49.40718246372712</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.89533002555652</v>
+        <v>9.580432082378369</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>59.63336592089244</v>
+        <v>65.37260041958517</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>64.95316334638419</v>
+        <v>70.69503187040652</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>62.90127182071362</v>
+        <v>70.64066792949689</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>69.25665669289558</v>
+        <v>79.81544983530512</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>73.66565814653657</v>
+        <v>82.20940690706918</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>38.14371770961107</v>
+        <v>28.83560630685335</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>65.35640182842779</v>
+        <v>80.15986335428806</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>71.66362500949228</v>
+        <v>86.14667130637135</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>16.10088717256</v>
+        <v>10.84126765672857</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>34.00642128356252</v>
+        <v>10.2605638019965</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>37.87235490921276</v>
+        <v>9.138611931643588</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>13.48828004470417</v>
+        <v>-1.593903165061537</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.16870897358865</v>
+        <v>11.52650553486829</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>38.28500338752303</v>
+        <v>12.93278210183463</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.42294146653949</v>
+        <v>-0.9538190244858242</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>46.0781302750994</v>
+        <v>15.6773457832734</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>50.83437735039344</v>
+        <v>12.08427173648447</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>49.32390712550385</v>
+        <v>12.01444102214267</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>55.55779969130363</v>
+        <v>14.5252518953766</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>59.95666664341599</v>
+        <v>12.63372589446807</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.18643282902785</v>
+        <v>11.11233750903648</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>50.94500244471078</v>
+        <v>13.07101319390487</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>57.1014958886071</v>
+        <v>14.71438054082099</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>20.01423257979246</v>
+        <v>4.261140783859695</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>37.88868992993746</v>
+        <v>8.063137597138763</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>42.12060012926082</v>
+        <v>12.55749983867047</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>16.64386079077183</v>
+        <v>-3.006837729589012</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>37.01607248979465</v>
+        <v>3.92030351315038</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>41.64292337936291</v>
+        <v>13.34985961917514</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>27.86727971124445</v>
+        <v>-2.230452904448033</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>49.44348414927576</v>
+        <v>12.32570695076449</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>54.63459446791752</v>
+        <v>28.44475053458816</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>51.60969890583685</v>
+        <v>7.672489089914116</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>57.86407074928182</v>
+        <v>20.42178202011949</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>62.48310949630076</v>
+        <v>32.94667645579843</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>27.50585402891159</v>
+        <v>0.1959775428303168</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>54.76159386829819</v>
+        <v>18.93277866566113</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>60.99320296364685</v>
+        <v>16.57363229601505</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.68293730209485</v>
+        <v>5.209244732573556</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>46.69045358380382</v>
+        <v>10.18402052300415</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>51.04457417797558</v>
+        <v>31.59618845684134</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.70576892543291</v>
+        <v>-0.3000114707373776</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>46.68900739319972</v>
+        <v>13.22083001408914</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>51.38695450938036</v>
+        <v>32.71628282670591</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>38.34723153322136</v>
+        <v>-0.5753601823271346</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>61.07642620598449</v>
+        <v>23.54242897353724</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>66.36735591728686</v>
+        <v>60.87933109620961</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>64.7826986980829</v>
+        <v>23.34546018233729</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>71.52891381108418</v>
+        <v>49.34910761621146</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>76.54512793400812</v>
+        <v>72.57748548857008</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>38.14650822338609</v>
+        <v>3.806109484677183</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>67.41564639599009</v>
+        <v>29.58506636290086</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>73.9309876053895</v>
+        <v>42.1537427107554</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.05772696608091</v>
+        <v>14.64089306277848</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>43.15093800791658</v>
+        <v>22.11247874241341</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>46.74535197422131</v>
+        <v>38.21705840251216</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.22545675349051</v>
+        <v>6.118855253697884</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.2818454679846</v>
+        <v>45.60075927761402</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>48.92330136012612</v>
+        <v>51.57473120041516</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>35.42011535480215</v>
+        <v>7.016179917440304</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>57.20949380771509</v>
+        <v>65.63273680731709</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>61.60861805729166</v>
+        <v>68.59430076638095</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>59.61817899938453</v>
+        <v>63.40990451572708</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>65.8812151540395</v>
+        <v>75.48943013108536</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>69.62940075550993</v>
+        <v>72.84216078304878</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>33.46748154049466</v>
+        <v>30.12936757221791</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>60.67073858846047</v>
+        <v>55.18141691714183</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>66.46037708421967</v>
+        <v>74.3377944521162</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>27.08319482709591</v>
+        <v>18.37099160349775</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>45.0634449272635</v>
+        <v>33.37917777231201</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>48.9628562797071</v>
+        <v>37.76197283795938</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.36953683601977</v>
+        <v>1.390398281811354</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>46.01528585998601</v>
+        <v>34.44504486254479</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>50.09209881667496</v>
+        <v>37.96115042545068</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.74633321364736</v>
+        <v>1.961166362880991</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>58.36915529932658</v>
+        <v>54.31763707039077</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>63.13982183485244</v>
+        <v>60.68844078462301</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>59.8416230149348</v>
+        <v>46.55154345215287</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>66.09498114807914</v>
+        <v>55.83837545653847</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>70.06507375539168</v>
+        <v>56.46451750695909</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>34.94343459209396</v>
+        <v>26.46016690854797</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>62.52640850024983</v>
+        <v>63.28305908562641</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>68.3112988422764</v>
+        <v>63.82163017879347</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>34.16585530869615</v>
+        <v>21.38618373593257</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>53.22517161551336</v>
+        <v>38.01426961279005</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>57.20633634468405</v>
+        <v>45.52115603669101</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>32.98806442322824</v>
+        <v>5.477174427593109</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>55.18408200133683</v>
+        <v>46.03409331316236</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>59.3044429702216</v>
+        <v>48.8107124929287</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.53478869548414</v>
+        <v>6.300685434684734</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>69.24360637322067</v>
+        <v>70.5666143948432</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>74.07093900084158</v>
+        <v>74.20301189113773</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>72.22265434603938</v>
+        <v>74.29318743222427</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>78.95863510351593</v>
+        <v>80.41912854231414</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>83.22619714158057</v>
+        <v>83.867021866828</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>44.97302531297993</v>
+        <v>31.98455818009554</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>74.50248736997992</v>
+        <v>79.30848338074918</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>80.54232193918315</v>
+        <v>87.61689525643277</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>6.977331088437861</v>
+        <v>8.894711274016551</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.01199228886409</v>
+        <v>10.06150396105916</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.14606636798225</v>
+        <v>13.5032940897595</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>4.951906392109333</v>
+        <v>-1.156871682580721</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>23.33135370857012</v>
+        <v>7.522192385502336</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.71675242630253</v>
+        <v>14.4704176040399</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>13.82518304705656</v>
+        <v>-1.466769410197006</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>33.28482025366257</v>
+        <v>15.33459869148066</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>38.29578761047443</v>
+        <v>18.44130180185929</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>37.07595915617418</v>
+        <v>14.30676697336301</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.73696631716878</v>
+        <v>20.74424352161622</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>47.07841558884462</v>
+        <v>23.25086735903242</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>13.78027525655437</v>
+        <v>9.450085374746671</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>38.26748789417201</v>
+        <v>15.94441145102458</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>44.54199512911333</v>
+        <v>20.19650851985117</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>10.5120092492278</v>
+        <v>6.72334770965092</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.52086246575209</v>
+        <v>19.52409282823707</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.02823803665829</v>
+        <v>29.47100815012015</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>7.793279959166008</v>
+        <v>2.815309561391093</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.87966378545864</v>
+        <v>16.98219094209276</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>30.78052011790486</v>
+        <v>33.55015607462027</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>16.91747897654492</v>
+        <v>3.131895537888674</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.3124040624635</v>
+        <v>28.99427060946253</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>41.76142473531534</v>
+        <v>49.21006313563942</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>39.04612133277108</v>
+        <v>21.85942071124241</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>44.73092942853597</v>
+        <v>33.92676560653482</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>49.28713482482857</v>
+        <v>38.79608356254111</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.6730553638773</v>
+        <v>5.31779208922628</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>41.63099096415785</v>
+        <v>33.87861683318759</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>48.03591195230621</v>
+        <v>44.64632992183082</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>18.59865180073419</v>
+        <v>14.7355811349246</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.75192425620708</v>
+        <v>28.84306327481363</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>40.37745279902491</v>
+        <v>42.79562530859207</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>16.32394004046843</v>
+        <v>5.485384372307141</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.05429915255142</v>
+        <v>27.67961549844395</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>41.01449026632578</v>
+        <v>44.26508423221594</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>27.78679181801173</v>
+        <v>10.09268369071735</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>48.33291632786799</v>
+        <v>44.35810084887329</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>53.88266430480061</v>
+        <v>63.10217471852293</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>52.49961207846818</v>
+        <v>45.23301811660041</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>58.66822748335319</v>
+        <v>58.49235133050198</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>63.6542642769585</v>
+        <v>78.49486785849192</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.80685105005399</v>
+        <v>24.46341576952866</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>54.69595523424636</v>
+        <v>57.7588951215302</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>61.36998057914258</v>
+        <v>71.62009632444936</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>12.38689845782981</v>
+        <v>3.44712564062543</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>30.3183248631857</v>
+        <v>1.7725137535651</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>33.84840518803863</v>
+        <v>7.862704540291908</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>10.01891493944433</v>
+        <v>-3.35872773444034</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>30.65832721377908</v>
+        <v>5.758143138394122</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.31921440119521</v>
+        <v>11.60610004201555</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>20.32645097218322</v>
+        <v>-4.851040383068611</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>41.97914590807594</v>
+        <v>7.821400033760568</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>46.34103045424058</v>
+        <v>12.26454482546242</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>45.44392166880444</v>
+        <v>1.260613073474147</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>51.58864318253417</v>
+        <v>4.273455066403226</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>55.5699342573279</v>
+        <v>16.5407583519336</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>19.63857712693832</v>
+        <v>2.334769354241605</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>46.50192157505441</v>
+        <v>3.402787672391693</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>52.12755124888457</v>
+        <v>11.73387607799274</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>16.56441203709734</v>
+        <v>17.16671703596285</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>34.41592026971844</v>
+        <v>35.88254292396098</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>38.30844408617219</v>
+        <v>36.00842102869334</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>13.3805398374983</v>
+        <v>5.537373679197852</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.66923654037825</v>
+        <v>33.42399699603648</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>37.83448215212496</v>
+        <v>38.72951116227424</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.04236123642479</v>
+        <v>6.565211422879191</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>45.56886660158762</v>
+        <v>54.21008797791109</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>50.3559301810035</v>
+        <v>56.44079330610158</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>47.90976953310053</v>
+        <v>47.72306479765726</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>54.03841150462607</v>
+        <v>53.0930244511526</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>58.27181441764692</v>
+        <v>54.24920604996471</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.28165320196438</v>
+        <v>18.79195335199484</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>50.53222959938228</v>
+        <v>59.9454545038252</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>56.26502520654198</v>
+        <v>60.99812451959541</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.53703333067434</v>
+        <v>21.44571054622205</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>43.55010583218439</v>
+        <v>44.11734343398328</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.50999054925848</v>
+        <v>46.24063178671041</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>21.81080107600005</v>
+        <v>7.232352224982282</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>43.73675821543162</v>
+        <v>47.88737171440333</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>47.91599879227587</v>
+        <v>52.67207756492715</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.80693663154082</v>
+        <v>7.668372270723598</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>57.50813319046888</v>
+        <v>71.59017806083668</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>62.34160927001257</v>
+        <v>70.14160436637854</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>61.35847387065446</v>
+        <v>77.50846697372968</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>67.97377083674985</v>
+        <v>87.11066577573314</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>72.52899400996117</v>
+        <v>85.94821204054786</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>34.20305145574899</v>
+        <v>24.00872139575501</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>63.51469383622114</v>
+        <v>84.56177520428938</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>69.47002171083534</v>
+        <v>84.93765540238454</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-0.600352799519023</v>
+        <v>11.08951571751683</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>16.35127404336438</v>
+        <v>12.22550617725378</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>20.31197427981139</v>
+        <v>17.14230339214835</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-3.44035336086606</v>
+        <v>-2.036742091916128</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.10013089453504</v>
+        <v>11.58439445900314</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.20198655795027</v>
+        <v>16.44238208472405</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>5.697738969076264</v>
+        <v>-0.5856767507236107</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.27802174754068</v>
+        <v>20.13802499308519</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.12509130495623</v>
+        <v>25.47405489136684</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>31.1350691294649</v>
+        <v>15.94273986346431</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.09723603939635</v>
+        <v>24.97886430524535</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>41.23177922441698</v>
+        <v>27.83945201879414</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>6.841341807789736</v>
+        <v>11.79175065806805</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>32.3648444974924</v>
+        <v>21.15139160604872</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.46068083788742</v>
+        <v>26.02784280270949</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.373685963063746</v>
+        <v>5.299802135423285</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.21534564506968</v>
+        <v>9.787806504151742</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.5807996072644</v>
+        <v>18.47535122721554</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1.226322730222298</v>
+        <v>-2.721286618694091</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>17.90823424616497</v>
+        <v>7.300716776955547</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.57427640105627</v>
+        <v>20.60538741404194</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>8.158932295245265</v>
+        <v>-2.428278400980215</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.5780073983237</v>
+        <v>15.47428664924207</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.89551654445268</v>
+        <v>34.20367412806344</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.44565313168956</v>
+        <v>10.58935644632152</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.41517826700871</v>
+        <v>20.31894526071416</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.82548690667984</v>
+        <v>29.59147375042911</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>9.315538416713039</v>
+        <v>2.821396392134229</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.23479663583251</v>
+        <v>21.66593045887904</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.4555621244471</v>
+        <v>29.35700297065154</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>12.05029256352073</v>
+        <v>19.66531024923118</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.15477119936215</v>
+        <v>29.16767193606101</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>34.54354996124118</v>
+        <v>36.30694618417101</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>8.959593036618855</v>
+        <v>1.448916998767626</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.86043808333465</v>
+        <v>24.63648902996801</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>34.47755061516882</v>
+        <v>31.62513790635756</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>20.79092405503568</v>
+        <v>6.89332733245983</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>42.49971388859308</v>
+        <v>44.40285357068224</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>47.81396377533913</v>
+        <v>54.4834074892926</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>47.69543084597586</v>
+        <v>48.28429132439494</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.15752107626119</v>
+        <v>55.23316656161401</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>58.88911091441541</v>
+        <v>66.14196106913006</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.93423535504273</v>
+        <v>23.48042786592221</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>49.98177396109386</v>
+        <v>50.24040205282888</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>56.39517370260302</v>
+        <v>55.21122119058018</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1.302644504247509</v>
+        <v>5.027111842230735</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.50853323058803</v>
+        <v>4.39813826385376</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.04512710050613</v>
+        <v>4.160690801097804</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-4.284951879466932</v>
+        <v>-2.99341006466781</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>13.85477789536507</v>
+        <v>3.895608862769009</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>17.52513479591499</v>
+        <v>4.950790554675937</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.247303108223433</v>
+        <v>-1.722548159505596</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.47279103942131</v>
+        <v>6.436604268714735</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>27.83374627749756</v>
+        <v>6.01253824773271</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.14690100704156</v>
+        <v>1.762633187874513</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>33.66456801623629</v>
+        <v>2.672636258304941</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>37.56322686313237</v>
+        <v>5.209890392878776</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>5.543298876669555</v>
+        <v>6.832543679058453</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.31276663789535</v>
+        <v>7.884062942136332</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>34.90110995848443</v>
+        <v>9.48965400691084</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.946378145465513</v>
+        <v>1.552233406631508</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>17.66789921034515</v>
+        <v>3.161115244480744</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.59873777687538</v>
+        <v>2.567955580071462</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1.727170781697895</v>
+        <v>-2.235485939984134</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>16.0542267262251</v>
+        <v>2.1929456599341</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>20.2682694594818</v>
+        <v>6.731091035180349</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.074079189993329</v>
+        <v>-3.10319331930862</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.16484602910653</v>
+        <v>5.139623941621238</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>30.9815740274584</v>
+        <v>9.521601264299022</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.8616183727785</v>
+        <v>3.580821918957479</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.38737529138207</v>
+        <v>6.056949983957534</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>39.55013036372095</v>
+        <v>3.759273713275721</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>8.31428650835651</v>
+        <v>-1.574205111183947</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>32.47588752245791</v>
+        <v>6.758574183672131</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>38.20240994487671</v>
+        <v>9.402950997177768</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>11.02869205217776</v>
+        <v>18.76520660241193</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>27.95229981187573</v>
+        <v>22.1078454896305</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.90651721490309</v>
+        <v>24.99779829296563</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>7.720582424033065</v>
+        <v>2.910373477191943</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>27.17184778833632</v>
+        <v>17.3626808801584</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.34701417666933</v>
+        <v>21.74435176508687</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.85831371103009</v>
+        <v>8.037183804663879</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.17740931994923</v>
+        <v>30.34127524570692</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>43.99032115943552</v>
+        <v>34.63256009427521</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>44.1483807798013</v>
+        <v>37.69424263842016</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>50.12598832845391</v>
+        <v>42.55435086867466</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>54.58404588392733</v>
+        <v>42.31391009011429</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>20.07333386802595</v>
+        <v>23.97466922208665</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>46.23214258746974</v>
+        <v>32.92231783719461</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>52.14367039460856</v>
+        <v>39.36035267328904</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.92400255095952</v>
+        <v>17.23401678906285</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.6568762977971</v>
+        <v>22.87653942121041</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>40.74011779391103</v>
+        <v>31.48001134631668</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>16.05702691933377</v>
+        <v>1.388465418217734</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.54958528214645</v>
+        <v>20.93233937061201</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>40.88555010503427</v>
+        <v>28.7587700749286</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>27.25682020282726</v>
+        <v>4.173393394092997</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>48.75502337028028</v>
+        <v>38.08316967269688</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>53.74296259040626</v>
+        <v>43.43201523099522</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>51.9837044191196</v>
+        <v>35.97314096615386</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>58.20982415800006</v>
+        <v>45.8665297436923</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>62.51780642642092</v>
+        <v>49.94087353431865</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.15874584527582</v>
+        <v>31.65429789677451</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>53.70624060169769</v>
+        <v>53.41781123837227</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>60.18777499406956</v>
+        <v>62.98681586167083</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.16826710292654</v>
+        <v>12.86361137312729</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>39.85220205336469</v>
+        <v>23.95005647777594</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>44.31425763738545</v>
+        <v>26.67021393038845</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>18.55479916749166</v>
+        <v>-3.301964629940233</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>38.71218027355704</v>
+        <v>13.19729161492678</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>43.58085812834015</v>
+        <v>21.77511601898235</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.96834438245453</v>
+        <v>-0.7380834808173695</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>51.36787760522235</v>
+        <v>31.42871940541422</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>56.80545225245046</v>
+        <v>35.87312899534859</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>53.57287088973187</v>
+        <v>29.55684808868518</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>59.83189258141144</v>
+        <v>38.63057865299297</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>64.35434966636964</v>
+        <v>39.1173942791409</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.77227184884867</v>
+        <v>16.41572959180828</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>56.80556050603199</v>
+        <v>43.33503712996425</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>63.36013311952971</v>
+        <v>48.39422406902661</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.78099896476981</v>
+        <v>22.50557751429341</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>49.6521558452469</v>
+        <v>36.98492156182284</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>54.23060596236321</v>
+        <v>43.21371416347432</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.59373125572976</v>
+        <v>3.726054994741428</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>49.43332145585644</v>
+        <v>31.27136629279375</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>54.36020647265866</v>
+        <v>36.30452196301152</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>41.5256866323535</v>
+        <v>8.355689920173912</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>64.13961550741389</v>
+        <v>57.60491657804171</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>69.66311848687288</v>
+        <v>61.33915998318811</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>67.84310685553201</v>
+        <v>67.63176414695344</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>74.60103438143742</v>
+        <v>74.0449264466626</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>79.51190613529417</v>
+        <v>79.42221234174876</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>41.40516103176813</v>
+        <v>30.06207881485112</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>70.51497958450786</v>
+        <v>65.93486611696603</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>77.35734087444591</v>
+        <v>74.29377901530044</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>10.01696871020628</v>
+        <v>17.1079453618251</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.94323815573646</v>
+        <v>37.45629393316165</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>31.90089338989547</v>
+        <v>41.017225486746</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.953904248061792</v>
+        <v>8.389402123370463</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.57258908618159</v>
+        <v>41.49577353410312</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>32.65808314073092</v>
+        <v>46.03162921157487</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>17.96388184943651</v>
+        <v>9.530250428577276</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>39.63029779441035</v>
+        <v>58.75250587476025</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>44.47889543390505</v>
+        <v>60.11087772935592</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>43.51928487809388</v>
+        <v>67.37718562900854</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>49.73126203982348</v>
+        <v>71.46454986888088</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>53.98074901107645</v>
+        <v>69.85402991020764</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>17.54753527499918</v>
+        <v>21.86373119464449</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>44.68258147537871</v>
+        <v>62.46931405684455</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>50.96753222976653</v>
+        <v>68.37283769315374</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>12.84584378989511</v>
+        <v>14.62669725139967</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.66545375019206</v>
+        <v>33.72073836756195</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>35.01109744817593</v>
+        <v>38.93183792817638</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>9.957829968024187</v>
+        <v>3.493208605056378</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>30.17663876467976</v>
+        <v>28.15223535497771</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.79966506514735</v>
+        <v>38.4094723165297</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.20172639963085</v>
+        <v>4.939112590793382</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.71054605251955</v>
+        <v>47.58040675460064</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.01467174197357</v>
+        <v>60.59077366789434</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.58991931596489</v>
+        <v>46.49095660102422</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>50.79323837256494</v>
+        <v>54.65855326579231</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>55.30307501613218</v>
+        <v>54.26604081145445</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>19.81274981665878</v>
+        <v>14.11168286139467</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>47.33334972426064</v>
+        <v>57.78423377445989</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>53.74267868032878</v>
+        <v>63.97576452232819</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>21.09200884340842</v>
+        <v>15.43985173462901</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.13165448621859</v>
+        <v>39.21420608180402</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>44.54023402592379</v>
+        <v>45.71079040697884</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>18.68993522706796</v>
+        <v>1.045877119455927</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>40.63699666118595</v>
+        <v>37.77018476222398</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45.26823051172666</v>
+        <v>46.10309696661209</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>31.33310762028139</v>
+        <v>3.674942570874098</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>54.07283605504101</v>
+        <v>60.54521449347816</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>59.41529928777136</v>
+        <v>69.30704577140672</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>58.46856218066124</v>
+        <v>67.71075736617794</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>65.17612557301391</v>
+        <v>78.4727229035242</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>70.03853126646982</v>
+        <v>85.09846781817892</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.1655553545352</v>
+        <v>14.7264711345383</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>60.75874848684894</v>
+        <v>74.19090892986515</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>67.37894257444965</v>
+        <v>80.93446431008913</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>3.618042290089829</v>
+        <v>20.88531876648174</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.4658863646325</v>
+        <v>31.03370651390471</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>27.72955718283747</v>
+        <v>37.0233021742221</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1.007080905267018</v>
+        <v>7.195237340496682</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>23.9755019765613</v>
+        <v>42.74857769511971</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.4590376805399</v>
+        <v>47.63335302802406</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>12.14694006087142</v>
+        <v>9.16004376829607</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.12443824782061</v>
+        <v>59.35402309336135</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.34647192947955</v>
+        <v>60.09245046684369</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.32003358823461</v>
+        <v>65.43057097959772</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.26121844132985</v>
+        <v>65.6846796878243</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>52.86381047880917</v>
+        <v>67.15560467031999</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>13.77441782236311</v>
+        <v>24.16900454943999</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.54812690485088</v>
+        <v>43.68551529816533</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.35553432251062</v>
+        <v>65.02980514628534</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>7.832328057260114</v>
+        <v>22.31159422444406</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>27.62862773391624</v>
+        <v>39.49979884616751</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>32.28957221082447</v>
+        <v>40.56262599998747</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>4.349470229656992</v>
+        <v>3.938374726022648</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.95139912098426</v>
+        <v>34.88707093629733</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.99144369318722</v>
+        <v>40.72187975739966</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>15.80108124176843</v>
+        <v>3.28233533575202</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.67293297267734</v>
+        <v>53.93434757878119</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>45.36992493282396</v>
+        <v>62.33537748883899</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>43.65542403000167</v>
+        <v>54.1905899246316</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>50.61643894022824</v>
+        <v>58.76291684310601</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>55.4731253706493</v>
+        <v>60.2881928241915</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>17.27858365333487</v>
+        <v>22.01581692801679</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>47.58999052603951</v>
+        <v>62.38841737888274</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>54.46240097635109</v>
+        <v>67.96057980412228</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>16.70666073283456</v>
+        <v>24.02901489141951</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>37.74811010041793</v>
+        <v>42.9968472267596</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>42.50988436944844</v>
+        <v>47.32169261543143</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>13.73248793926782</v>
+        <v>5.004430235769338</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>38.11507913592631</v>
+        <v>43.7069367903069</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.19957791780702</v>
+        <v>48.56337394128433</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>27.8208804687002</v>
+        <v>3.975259213260561</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>52.95644989203606</v>
+        <v>67.70735958652257</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>58.72456414623477</v>
+        <v>72.32336119551688</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>58.61198882546786</v>
+        <v>79.08817523038017</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>66.11823468737559</v>
+        <v>82.88986425204956</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>71.34420019330626</v>
+        <v>86.88877553468377</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.48147205054882</v>
+        <v>23.24195501696417</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>62.00039254913723</v>
+        <v>75.43656778056928</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>69.13734913567218</v>
+        <v>82.07764730106645</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-37.7399102938854</v>
+        <v>22.412523010223</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>-15.63898492470625</v>
+        <v>29.1056879383342</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-10.72669458788955</v>
+        <v>32.95101295252681</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-41.63666992831232</v>
+        <v>14.28501350703504</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-16.03876987707209</v>
+        <v>58.80790953221126</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-10.91614912395012</v>
+        <v>58.07426837837194</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-31.59682770506308</v>
+        <v>10.34357667939594</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>-4.858014810942732</v>
+        <v>62.02072037877824</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>1.14431886010622</v>
+        <v>57.99026264445715</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>5.524366338784281</v>
+        <v>64.31784258570489</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>13.28805463157279</v>
+        <v>66.68584887581734</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.57259067084432</v>
+        <v>66.72421028005198</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-24.26065522165474</v>
+        <v>28.0582429617211</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>8.943988907949505</v>
+        <v>44.41895971676587</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>16.62358117500845</v>
+        <v>63.07929514625286</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-31.65640281232456</v>
+        <v>25.26734367892002</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-9.59994143334654</v>
+        <v>36.47769792509574</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-4.219744808743356</v>
+        <v>37.75205378231873</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-36.48949691783545</v>
+        <v>35.90800959656857</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-11.28295329124142</v>
+        <v>52.62715954515593</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-5.500929700313963</v>
+        <v>58.50060534674592</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-26.01665108088915</v>
+        <v>9.244092895102934</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>0.6168090655782186</v>
+        <v>55.48510260707925</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>7.172611224361205</v>
+        <v>61.13017162142101</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>9.465545035393191</v>
+        <v>50.54928494152688</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>17.24036884151041</v>
+        <v>58.0664311320982</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.83453386129867</v>
+        <v>57.34660016775685</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>-19.05280780905863</v>
+        <v>30.39750704818672</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>14.78587345395806</v>
+        <v>60.98820353172394</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.55681250964923</v>
+        <v>66.32149773135161</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>-19.92628743338073</v>
+        <v>29.16253306577167</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>3.554069838603557</v>
+        <v>41.82939155741043</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>9.044895050475354</v>
+        <v>44.39535667903722</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>-24.12842715686814</v>
+        <v>37.79580061685382</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>3.097003818362744</v>
+        <v>61.85892957191773</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>8.913078398763538</v>
+        <v>63.39544983537091</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>-10.58142815596574</v>
+        <v>9.555455838846722</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>17.49966332716016</v>
+        <v>68.64574117588165</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.13553407967891</v>
+        <v>69.49487397858519</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.12717841494754</v>
+        <v>82.57943000204699</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.5274453869192</v>
+        <v>82.62531246558494</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>42.51444834645274</v>
+        <v>87.88103905861979</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>-3.565364097115093</v>
+        <v>36.62738409294477</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.78010513506744</v>
+        <v>78.12571981197684</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>40.84350850540351</v>
+        <v>85.67569624742215</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1.951200426823913</v>
+        <v>13.83368176711462</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>21.41936638974794</v>
+        <v>31.39187567123429</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.6556507373966</v>
+        <v>37.67523091902629</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.4314859224905228</v>
+        <v>2.075589965328081</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.01947484895955</v>
+        <v>28.2973567122502</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.4469934600584</v>
+        <v>42.45013835174274</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>10.06591063489923</v>
+        <v>2.553067228690413</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.57618051163061</v>
+        <v>53.54565073656397</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.76764809294784</v>
+        <v>58.31805824998729</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>38.73329503096986</v>
+        <v>58.80057155271986</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.50266511900362</v>
+        <v>64.82243790620947</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>50.01507536211797</v>
+        <v>67.07155974721503</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>10.95784080445693</v>
+        <v>10.09100333218719</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.34393060165634</v>
+        <v>55.86989531029602</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>47.02935914670891</v>
+        <v>63.71879106376255</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>5.662600976576596</v>
+        <v>11.79953825555411</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.05619734655126</v>
+        <v>32.65876435036228</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.67374649056955</v>
+        <v>34.7030667599507</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>2.413443091508982</v>
+        <v>-0.5881340569315903</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.4816087758188</v>
+        <v>26.53473634743482</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.44070743927141</v>
+        <v>33.71694877191018</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>13.18060071923517</v>
+        <v>-0.3103579121248039</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.56464991931696</v>
+        <v>46.32368488150767</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>42.21006721622652</v>
+        <v>55.96407596491817</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>40.53748386033264</v>
+        <v>42.81181278967175</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>47.31247090430925</v>
+        <v>51.14587883423495</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.05944501322031</v>
+        <v>51.69392032104784</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>13.98991878505086</v>
+        <v>3.727133356740612</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.84277595406887</v>
+        <v>46.9607414762105</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>50.61110137508653</v>
+        <v>58.39403600221029</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>14.21712191648595</v>
+        <v>12.07566439637473</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.86109111694965</v>
+        <v>33.90446156702258</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.60686166171418</v>
+        <v>41.25439460206951</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>11.47768386511521</v>
+        <v>-0.4678573400247465</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.33494858396917</v>
+        <v>35.04826832794495</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>40.36306095095242</v>
+        <v>44.02843741404718</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.82901841869523</v>
+        <v>0.0161692388914183</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>49.47302245022755</v>
+        <v>55.19289162819521</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>55.22426134860245</v>
+        <v>66.57474862389796</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>55.16612557190155</v>
+        <v>64.98587435130069</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>62.4750717177286</v>
+        <v>75.93857956941994</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>67.64933162118759</v>
+        <v>83.74723140819687</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.93373024214356</v>
+        <v>5.13672370806945</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>57.97398956264475</v>
+        <v>68.79714195028953</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>65.04518882393593</v>
+        <v>79.60201130152483</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>2.789435297600467</v>
+        <v>15.64739356150883</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.43797159356685</v>
+        <v>15.19054305718551</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.5638250750788</v>
+        <v>17.42406227319962</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>0.02816282984313467</v>
+        <v>1.75776562851809</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.46755285098833</v>
+        <v>17.02077511469864</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.79730529679911</v>
+        <v>21.23833753961022</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>9.86341346542682</v>
+        <v>7.373227688043343</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>31.22776122790462</v>
+        <v>28.3974964049793</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.28928106995492</v>
+        <v>29.41323960108699</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>35.81711311734982</v>
+        <v>23.32204230234335</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>41.94969893708489</v>
+        <v>28.90161586693038</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>46.44917444961209</v>
+        <v>31.47282920014452</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>11.14138392302598</v>
+        <v>19.26006220820605</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>37.65636139100988</v>
+        <v>23.02884582538561</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>44.159993870687</v>
+        <v>28.34689124533568</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>7.148652060474936</v>
+        <v>12.88581134960077</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.78361579657421</v>
+        <v>29.57067996993679</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.31606119531591</v>
+        <v>35.65779142192769</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>3.671231651912772</v>
+        <v>5.220467818402899</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.80877959914218</v>
+        <v>27.27867733426586</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.70081786552719</v>
+        <v>40.4710160847323</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>13.80665065450544</v>
+        <v>5.946822212672139</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.11251826342317</v>
+        <v>43.64346710852598</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>40.65446728965613</v>
+        <v>58.26103331487521</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>38.58766380363446</v>
+        <v>38.04765480222945</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>44.75993218223803</v>
+        <v>45.66620159627438</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>49.4874684701785</v>
+        <v>56.50661413095818</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>14.86536547149033</v>
+        <v>10.89621231097925</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>41.94802812776805</v>
+        <v>46.97092054181496</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>48.54840531788541</v>
+        <v>58.19970401769787</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>15.87490432447218</v>
+        <v>16.91579527364839</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.69749285895472</v>
+        <v>35.78682754184163</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>39.32930098938728</v>
+        <v>45.34370747369952</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.84949023223257</v>
+        <v>4.944233408711494</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.68997233085568</v>
+        <v>34.11759427589314</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>39.61208730213018</v>
+        <v>47.83150853292278</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.49027980919334</v>
+        <v>8.252567392858911</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>48.00425306731741</v>
+        <v>55.88743620261467</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>53.61792577176287</v>
+        <v>70.29239609771193</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>52.96036737073038</v>
+        <v>56.51746989486992</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>59.65336887004661</v>
+        <v>63.3020818159218</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>64.7535545674923</v>
+        <v>81.98267105416966</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.67465472306375</v>
+        <v>17.98255528023993</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>55.80356447625095</v>
+        <v>57.31853732441937</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>62.70397584309872</v>
+        <v>76.97258088653878</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>-38.58997507917792</v>
+        <v>14.09374080406362</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>-16.59999846480315</v>
+        <v>16.21492803647545</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>-11.63540583946729</v>
+        <v>20.0819968171788</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-42.50217990807634</v>
+        <v>-3.038383086642195</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-17.03567139092763</v>
+        <v>22.05353661098554</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-11.85153315143664</v>
+        <v>29.09840867272056</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>-32.574035552377</v>
+        <v>2.131438096807678</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-5.96068804901443</v>
+        <v>36.84743617828227</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>0.09888023670367652</v>
+        <v>38.62562129886425</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>4.511480854945898</v>
+        <v>33.01676864438997</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>12.25510230433582</v>
+        <v>39.51564504491655</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>17.55826000442076</v>
+        <v>46.7914342370154</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-25.1034590897869</v>
+        <v>17.03789223201444</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>7.969210506128142</v>
+        <v>35.21042714798259</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>15.7002900246356</v>
+        <v>48.84959271253301</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-32.51829770034111</v>
+        <v>7.732854619524982</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-10.57016829131908</v>
+        <v>17.56979081257454</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-5.136001171144656</v>
+        <v>32.13385840582478</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>-37.36045464434139</v>
+        <v>2.507495496522036</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-12.28301775501952</v>
+        <v>14.11306962594473</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-6.437153404783336</v>
+        <v>46.48050182898912</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-27.00228198534644</v>
+        <v>-1.686730815908835</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-0.4912900251113586</v>
+        <v>29.02725061510049</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>6.123562334491989</v>
+        <v>53.18998951181421</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>8.449282424923489</v>
+        <v>28.58593254567996</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>16.20698488885293</v>
+        <v>38.21835766300929</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.81761535855906</v>
+        <v>53.74334334789949</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-19.91462316689747</v>
+        <v>7.721270855975774</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>13.79525923857991</v>
+        <v>43.46866635785224</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>21.61941174200769</v>
+        <v>56.41229856946843</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-20.66524737916382</v>
+        <v>14.50740702958409</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>2.710929080155538</v>
+        <v>23.82958711911773</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>8.258852489906204</v>
+        <v>37.59235382144007</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-24.86683441782204</v>
+        <v>1.8026107153045</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>2.237128566510094</v>
+        <v>21.41351051130557</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>8.11872035505983</v>
+        <v>42.44313980466356</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-11.42381722272691</v>
+        <v>-1.590769145994759</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>16.53957629124049</v>
+        <v>40.60248125107229</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.23763348620127</v>
+        <v>59.47278439542885</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>27.24449092992364</v>
+        <v>56.63257604198746</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>35.63068519989501</v>
+        <v>58.75227449399493</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>41.64117515529145</v>
+        <v>75.44869353532441</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-4.29160220580764</v>
+        <v>9.218494111975257</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>31.92678293699095</v>
+        <v>47.87583331056211</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>40.04881910916535</v>
+        <v>71.37582832727395</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>14.50353482153662</v>
+        <v>22.56038114997437</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.49597535123128</v>
+        <v>32.16629371652148</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.32824442966904</v>
+        <v>36.75844719975328</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>12.14291234908216</v>
+        <v>8.08587825153851</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.09853309604257</v>
+        <v>45.58423610289493</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>37.06955803685187</v>
+        <v>48.00021329929314</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.98052065700046</v>
+        <v>9.905507820289831</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>44.74167247188642</v>
+        <v>61.78570904183657</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>49.42412606059449</v>
+        <v>59.55551338390804</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>48.28822398130026</v>
+        <v>63.58251927765049</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>54.41415262168806</v>
+        <v>66.1522829054153</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>58.38671960956431</v>
+        <v>69.46930406979666</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.73717680100932</v>
+        <v>25.3564243499709</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>49.51051233259621</v>
+        <v>38.11060854043512</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>55.59365473119372</v>
+        <v>68.30209164891961</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.68460951943485</v>
+        <v>26.14966227687794</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>35.58974251369155</v>
+        <v>40.6312386177375</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>39.78101872013737</v>
+        <v>40.00622075530602</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>14.50376348664343</v>
+        <v>7.313410302202936</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>35.07260523426265</v>
+        <v>37.67467388150569</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>39.55901037681944</v>
+        <v>41.48706551962044</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.57606295143263</v>
+        <v>8.435597260166542</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>47.19827770652279</v>
+        <v>57.15139770511279</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>52.30645627821342</v>
+        <v>60.71552501394569</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>49.74607238829945</v>
+        <v>52.90391561774349</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>55.84858606462855</v>
+        <v>57.21553233020595</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>60.05380217592266</v>
+        <v>60.56618256471619</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.31691995725626</v>
+        <v>27.23533437366897</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>52.50392243264385</v>
+        <v>61.48507698878744</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>58.63822191494531</v>
+        <v>63.96119741032676</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.90890726078419</v>
+        <v>26.013793586841</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>44.98838786142139</v>
+        <v>41.92265023801681</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>49.26001533575067</v>
+        <v>44.85637547451536</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.26603892123938</v>
+        <v>7.186190217611166</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>45.48536259738083</v>
+        <v>44.43311110252571</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>49.99584917459546</v>
+        <v>46.67457702747333</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>36.70970462404929</v>
+        <v>7.014400680549212</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>59.52307754750662</v>
+        <v>68.04559675298961</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>64.68649285846901</v>
+        <v>69.29221274376052</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>63.52101584228544</v>
+        <v>77.16539552674047</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>70.17871447478959</v>
+        <v>77.96937137547357</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>74.6790114082638</v>
+        <v>83.09447639211038</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.54004995281902</v>
+        <v>30.70233528377591</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>65.83454531231899</v>
+        <v>73.29851018033634</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>72.1772290690529</v>
+        <v>79.79271601902587</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>6.824890642253393</v>
+        <v>13.89117058288684</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.09930515602866</v>
+        <v>31.45409167124132</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>30.2761416692784</v>
+        <v>36.25140247654163</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>4.629545978429607</v>
+        <v>3.535791677732188</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.85243118014724</v>
+        <v>35.44973541504003</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>31.22139025304848</v>
+        <v>43.28592989608667</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>15.30507074840068</v>
+        <v>3.239521140908415</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.58089018061371</v>
+        <v>53.24980841702737</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>43.70124499416481</v>
+        <v>55.92988691563635</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>43.14490505374684</v>
+        <v>54.90433486451228</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>49.88279148625986</v>
+        <v>65.90052670982605</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>54.30914060614154</v>
+        <v>63.6216801654291</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>15.52105175453809</v>
+        <v>9.754879982911181</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>44.605023218075</v>
+        <v>53.68682675320943</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>51.17866120745025</v>
+        <v>62.87478547345862</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>10.34881471899782</v>
+        <v>13.15066723885125</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.54400316278669</v>
+        <v>33.97991640391135</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.0958391341432</v>
+        <v>35.23685730113832</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>7.287201864425679</v>
+        <v>3.006384589511899</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>29.12361156445289</v>
+        <v>31.7019857738157</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.01718111341818</v>
+        <v>36.93557303558387</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>18.22283951859037</v>
+        <v>3.676905955071657</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.36868630890886</v>
+        <v>49.36052218273907</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>46.93495067944411</v>
+        <v>57.94921759750576</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.79053555900637</v>
+        <v>45.54935023265857</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>51.53692230918196</v>
+        <v>55.69756352934206</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>56.18376638782797</v>
+        <v>55.75651724814472</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>18.37516637477077</v>
+        <v>10.14286896023783</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>47.92013740595074</v>
+        <v>57.98093748540421</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>54.5614811577225</v>
+        <v>62.77810454471633</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.53867203564616</v>
+        <v>10.99378364321387</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.95145419784123</v>
+        <v>30.13240428788849</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.645938489885</v>
+        <v>38.44776880576499</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>15.96885015593416</v>
+        <v>0.8125831194635715</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.55470533383536</v>
+        <v>35.17661702342264</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>44.53503651023949</v>
+        <v>43.35764847229642</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>29.44137566090598</v>
+        <v>1.594974964204308</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>53.81210235461582</v>
+        <v>51.07977409819051</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>59.50063961953039</v>
+        <v>64.60843618497508</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>58.93554001645909</v>
+        <v>59.72054664595899</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>66.20668976563543</v>
+        <v>71.88173978805641</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>71.29131203109284</v>
+        <v>80.2777177793424</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>29.90032038251029</v>
+        <v>7.259493630494969</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>61.57029846527398</v>
+        <v>61.76447522454352</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>68.54701677914987</v>
+        <v>75.57158215984325</v>
       </c>
     </row>
   </sheetData>
